--- a/FNB_CARD_DRIVERS.xlsx
+++ b/FNB_CARD_DRIVERS.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
